--- a/PythonFiles_for_Tests/Excel_PlanilhaExemplo.xlsx
+++ b/PythonFiles_for_Tests/Excel_PlanilhaExemplo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRABALHO E FACUL E CURSOS\CURSOS E TI PCs\CURSOS\RPA\PYTHON\Luiz Fernando Estivalet\RPA_With_Python\PythonFiles_for_Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E7225F-51E7-4A5A-9E32-1E37D7982393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Apples</t>
   </si>
@@ -34,12 +40,21 @@
   </si>
   <si>
     <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Fruta</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,13 +92,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -96,14 +111,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -213,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,92 +404,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>42099.565300925926</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C2" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>42099.153738425928</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>42100.532534722224</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>42102.374803240738</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>42104.088194444441</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>42104.757372685184</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>42104.111643518518</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>98</v>
       </c>
     </row>
@@ -482,24 +511,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
